--- a/HN SA 2016 ( DEPOSITOS )/DEPOSITOS NOVIEMBRE 2016.-/ALCOSUR.xlsx
+++ b/HN SA 2016 ( DEPOSITOS )/DEPOSITOS NOVIEMBRE 2016.-/ALCOSUR.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="149">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -112,9 +112,6 @@
     <t xml:space="preserve">001-001-4180</t>
   </si>
   <si>
-    <t xml:space="preserve">no hay boleta</t>
-  </si>
-  <si>
     <t xml:space="preserve">001-001-4871</t>
   </si>
   <si>
@@ -470,12 +467,6 @@
   </si>
   <si>
     <t xml:space="preserve">001-001-4383</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VER</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> No existe 5075 </t>
   </si>
 </sst>
 </file>
@@ -592,7 +583,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -637,19 +628,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -702,10 +685,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:S82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="N:P"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1007,16 +990,16 @@
       <c r="A7" s="9" t="n">
         <v>42677</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="11" t="s">
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="7" t="n">
@@ -1080,13 +1063,8 @@
       <c r="K8" s="10"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="12" t="n">
-        <f aca="false">-H8</f>
-        <v>-16560000</v>
-      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="11"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -1122,13 +1100,8 @@
       <c r="K9" s="10"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="12" t="n">
-        <f aca="false">-H9</f>
-        <v>-21276000</v>
-      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="11"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -1138,16 +1111,16 @@
       <c r="A10" s="9" t="n">
         <v>42677</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="7" t="n">
@@ -1185,16 +1158,16 @@
       <c r="A11" s="9" t="n">
         <v>42678</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="7" t="n">
@@ -1211,13 +1184,8 @@
       <c r="K11" s="10"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O11" s="12" t="n">
-        <f aca="false">-H11</f>
-        <v>-56110000</v>
-      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="11"/>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -1228,10 +1196,10 @@
         <v>42678</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -1253,13 +1221,8 @@
       <c r="K12" s="10"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-      <c r="N12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O12" s="12" t="n">
-        <f aca="false">-H12</f>
-        <v>-36200000</v>
-      </c>
+      <c r="N12" s="4"/>
+      <c r="O12" s="11"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
@@ -1270,10 +1233,10 @@
         <v>42678</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
@@ -1295,13 +1258,8 @@
       <c r="K13" s="10"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" s="12" t="n">
-        <f aca="false">-H13</f>
-        <v>-69690000</v>
-      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="11"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -1312,10 +1270,10 @@
         <v>42678</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
@@ -1333,17 +1291,12 @@
         <v>18518000</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="J14" s="13"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="10"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O14" s="12" t="n">
-        <f aca="false">-H14</f>
-        <v>-18518000</v>
-      </c>
+      <c r="N14" s="4"/>
+      <c r="O14" s="11"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -1354,10 +1307,10 @@
         <v>42678</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>14</v>
@@ -1375,17 +1328,12 @@
         <v>34028000</v>
       </c>
       <c r="I15" s="7"/>
-      <c r="J15" s="13"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="10"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O15" s="12" t="n">
-        <f aca="false">-H15</f>
-        <v>-34028000</v>
-      </c>
+      <c r="N15" s="4"/>
+      <c r="O15" s="11"/>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
@@ -1396,10 +1344,10 @@
         <v>42678</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>14</v>
@@ -1421,13 +1369,8 @@
       <c r="K16" s="10"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O16" s="12" t="n">
-        <f aca="false">-H16</f>
-        <v>-50370000</v>
-      </c>
+      <c r="N16" s="4"/>
+      <c r="O16" s="11"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -1438,10 +1381,10 @@
         <v>42678</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>14</v>
@@ -1463,13 +1406,8 @@
       <c r="K17" s="10"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O17" s="12" t="n">
-        <f aca="false">-H17</f>
-        <v>-20996000</v>
-      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -1480,10 +1418,10 @@
         <v>42678</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
@@ -1505,13 +1443,8 @@
       <c r="K18" s="10"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O18" s="12" t="n">
-        <f aca="false">-H18</f>
-        <v>-18630000</v>
-      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="11"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
@@ -1522,10 +1455,10 @@
         <v>42678</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>14</v>
@@ -1547,13 +1480,8 @@
       <c r="K19" s="10"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O19" s="12" t="n">
-        <f aca="false">-H19</f>
-        <v>-18912000</v>
-      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -1564,10 +1492,10 @@
         <v>42678</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>14</v>
@@ -1589,13 +1517,8 @@
       <c r="K20" s="10"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" s="12" t="n">
-        <f aca="false">-H20</f>
-        <v>-19186000</v>
-      </c>
+      <c r="N20" s="4"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
@@ -1606,10 +1529,10 @@
         <v>42678</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
@@ -1631,13 +1554,8 @@
       <c r="K21" s="10"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" s="12" t="n">
-        <f aca="false">-H21</f>
-        <v>-35190000</v>
-      </c>
+      <c r="N21" s="4"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
@@ -1648,10 +1566,10 @@
         <v>42681</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>14</v>
@@ -1673,13 +1591,8 @@
       <c r="K22" s="10"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" s="12" t="n">
-        <f aca="false">-H22</f>
-        <v>-40544000</v>
-      </c>
+      <c r="N22" s="4"/>
+      <c r="O22" s="11"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
@@ -1690,10 +1603,10 @@
         <v>42681</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>14</v>
@@ -1726,7 +1639,7 @@
         <v>17</v>
       </c>
       <c r="N23" s="4"/>
-      <c r="O23" s="12"/>
+      <c r="O23" s="11"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
@@ -1737,10 +1650,10 @@
         <v>42681</v>
       </c>
       <c r="B24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>14</v>
@@ -1762,13 +1675,8 @@
       <c r="K24" s="10"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O24" s="12" t="n">
-        <f aca="false">-H24</f>
-        <v>-53475000</v>
-      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="11"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
@@ -1779,10 +1687,10 @@
         <v>42681</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>14</v>
@@ -1815,7 +1723,7 @@
         <v>17</v>
       </c>
       <c r="N25" s="4"/>
-      <c r="O25" s="12"/>
+      <c r="O25" s="11"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
@@ -1826,10 +1734,10 @@
         <v>42683</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>60</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>14</v>
@@ -1862,7 +1770,7 @@
         <v>17</v>
       </c>
       <c r="N26" s="4"/>
-      <c r="O26" s="12"/>
+      <c r="O26" s="11"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
@@ -1873,10 +1781,10 @@
         <v>42683</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>14</v>
@@ -1898,13 +1806,8 @@
       <c r="K27" s="10"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O27" s="12" t="n">
-        <f aca="false">-H27</f>
-        <v>-17250000</v>
-      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="11"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
@@ -1915,10 +1818,10 @@
         <v>42684</v>
       </c>
       <c r="B28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>14</v>
@@ -1940,13 +1843,8 @@
       <c r="K28" s="10"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O28" s="12" t="n">
-        <f aca="false">-H28</f>
-        <v>-22444000</v>
-      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="11"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
@@ -1957,10 +1855,10 @@
         <v>42684</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>14</v>
@@ -1982,13 +1880,8 @@
       <c r="K29" s="10"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O29" s="12" t="n">
-        <f aca="false">-H29</f>
-        <v>-18285000</v>
-      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="11"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
@@ -1999,10 +1892,10 @@
         <v>42684</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>14</v>
@@ -2024,13 +1917,8 @@
       <c r="K30" s="10"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O30" s="12" t="n">
-        <f aca="false">-H30</f>
-        <v>-15760000</v>
-      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="11"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
@@ -2041,10 +1929,10 @@
         <v>42684</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>14</v>
@@ -2077,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="N31" s="4"/>
-      <c r="O31" s="12"/>
+      <c r="O31" s="11"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
@@ -2088,10 +1976,10 @@
         <v>42684</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>14</v>
@@ -2118,13 +2006,13 @@
         <v>34500000</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N32" s="4"/>
-      <c r="O32" s="12"/>
+      <c r="O32" s="11"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
@@ -2135,10 +2023,10 @@
         <v>42685</v>
       </c>
       <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>14</v>
@@ -2159,7 +2047,7 @@
         <v>2235574</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K33" s="10"/>
       <c r="L33" s="1" t="s">
@@ -2169,7 +2057,7 @@
         <v>17</v>
       </c>
       <c r="N33" s="4"/>
-      <c r="O33" s="12"/>
+      <c r="O33" s="11"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
@@ -2180,10 +2068,10 @@
         <v>42685</v>
       </c>
       <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>14</v>
@@ -2204,7 +2092,7 @@
         <v>2235574</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K34" s="10" t="n">
         <v>60198000</v>
@@ -2216,7 +2104,7 @@
         <v>17</v>
       </c>
       <c r="N34" s="4"/>
-      <c r="O34" s="12"/>
+      <c r="O34" s="11"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
@@ -2227,10 +2115,10 @@
         <v>42688</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>14</v>
@@ -2252,13 +2140,8 @@
       <c r="K35" s="10"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-      <c r="N35" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O35" s="12" t="n">
-        <f aca="false">-H35</f>
-        <v>-19910000</v>
-      </c>
+      <c r="N35" s="4"/>
+      <c r="O35" s="11"/>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -2269,10 +2152,10 @@
         <v>42688</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>14</v>
@@ -2294,13 +2177,8 @@
       <c r="K36" s="10"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O36" s="12" t="n">
-        <f aca="false">-H36</f>
-        <v>-18824000</v>
-      </c>
+      <c r="N36" s="4"/>
+      <c r="O36" s="11"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -2311,10 +2189,10 @@
         <v>42688</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>14</v>
@@ -2336,13 +2214,8 @@
       <c r="K37" s="10"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O37" s="12" t="n">
-        <f aca="false">-H37</f>
-        <v>-36570000</v>
-      </c>
+      <c r="N37" s="4"/>
+      <c r="O37" s="11"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
@@ -2353,10 +2226,10 @@
         <v>42688</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>14</v>
@@ -2378,13 +2251,8 @@
       <c r="K38" s="10"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O38" s="12" t="n">
-        <f aca="false">-H38</f>
-        <v>-18100000</v>
-      </c>
+      <c r="N38" s="4"/>
+      <c r="O38" s="11"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
@@ -2395,10 +2263,10 @@
         <v>42688</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>14</v>
@@ -2420,13 +2288,8 @@
       <c r="K39" s="10"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-      <c r="N39" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O39" s="12" t="n">
-        <f aca="false">-H39</f>
-        <v>-69000000</v>
-      </c>
+      <c r="N39" s="4"/>
+      <c r="O39" s="11"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
@@ -2437,10 +2300,10 @@
         <v>42688</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>14</v>
@@ -2462,13 +2325,8 @@
       <c r="K40" s="10"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O40" s="12" t="n">
-        <f aca="false">-H40</f>
-        <v>-39006000</v>
-      </c>
+      <c r="N40" s="4"/>
+      <c r="O40" s="11"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
@@ -2479,10 +2337,10 @@
         <v>42685</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>14</v>
@@ -2515,7 +2373,7 @@
         <v>17</v>
       </c>
       <c r="N41" s="4"/>
-      <c r="O41" s="12"/>
+      <c r="O41" s="11"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
@@ -2526,10 +2384,10 @@
         <v>42689</v>
       </c>
       <c r="B42" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>14</v>
@@ -2556,13 +2414,13 @@
         <v>90500000</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N42" s="4"/>
-      <c r="O42" s="12"/>
+      <c r="O42" s="11"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
@@ -2573,10 +2431,10 @@
         <v>42689</v>
       </c>
       <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>14</v>
@@ -2598,13 +2456,8 @@
       <c r="K43" s="10"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O43" s="12" t="n">
-        <f aca="false">-H43</f>
-        <v>-20996000</v>
-      </c>
+      <c r="N43" s="4"/>
+      <c r="O43" s="11"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
@@ -2615,16 +2468,16 @@
         <v>42689</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="F44" s="7" t="n">
         <v>4800</v>
@@ -2649,7 +2502,7 @@
         <v>17</v>
       </c>
       <c r="N44" s="4"/>
-      <c r="O44" s="12"/>
+      <c r="O44" s="11"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
@@ -2660,10 +2513,10 @@
         <v>42689</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>14</v>
@@ -2696,7 +2549,7 @@
         <v>17</v>
       </c>
       <c r="N45" s="4"/>
-      <c r="O45" s="12"/>
+      <c r="O45" s="11"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
@@ -2707,10 +2560,10 @@
         <v>42691</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>14</v>
@@ -2732,13 +2585,8 @@
       <c r="K46" s="10"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O46" s="12" t="n">
-        <f aca="false">-H46</f>
-        <v>-82800000</v>
-      </c>
+      <c r="N46" s="4"/>
+      <c r="O46" s="11"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
@@ -2749,10 +2597,10 @@
         <v>42691</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>14</v>
@@ -2779,13 +2627,13 @@
         <v>36924000</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N47" s="4"/>
-      <c r="O47" s="12"/>
+      <c r="O47" s="11"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
@@ -2796,10 +2644,10 @@
         <v>42691</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>14</v>
@@ -2821,13 +2669,8 @@
       <c r="K48" s="10"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O48" s="12" t="n">
-        <f aca="false">-H48</f>
-        <v>-18762000</v>
-      </c>
+      <c r="N48" s="4"/>
+      <c r="O48" s="11"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
       <c r="R48" s="4"/>
@@ -2838,10 +2681,10 @@
         <v>42692</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>14</v>
@@ -2868,13 +2711,13 @@
         <v>32580000</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N49" s="4"/>
-      <c r="O49" s="12"/>
+      <c r="O49" s="11"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
@@ -2885,10 +2728,10 @@
         <v>42692</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>14</v>
@@ -2915,13 +2758,13 @@
         <v>54300000</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N50" s="4"/>
-      <c r="O50" s="12"/>
+      <c r="O50" s="11"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
@@ -2932,10 +2775,10 @@
         <v>42692</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>105</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>14</v>
@@ -2962,13 +2805,13 @@
         <v>51750000</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N51" s="4"/>
-      <c r="O51" s="12"/>
+      <c r="O51" s="11"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
@@ -2979,10 +2822,10 @@
         <v>42692</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>14</v>
@@ -3009,13 +2852,13 @@
         <v>20996000</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N52" s="4"/>
-      <c r="O52" s="12"/>
+      <c r="O52" s="11"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
@@ -3026,10 +2869,10 @@
         <v>42692</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>14</v>
@@ -3054,13 +2897,13 @@
       </c>
       <c r="K53" s="10"/>
       <c r="L53" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N53" s="4"/>
-      <c r="O53" s="12"/>
+      <c r="O53" s="11"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
@@ -3071,10 +2914,10 @@
         <v>42692</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>14</v>
@@ -3101,13 +2944,13 @@
         <v>37542000</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N54" s="4"/>
-      <c r="O54" s="12"/>
+      <c r="O54" s="11"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
@@ -3118,10 +2961,10 @@
         <v>42692</v>
       </c>
       <c r="B55" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>111</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>14</v>
@@ -3148,13 +2991,13 @@
         <v>56110000</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N55" s="4"/>
-      <c r="O55" s="12"/>
+      <c r="O55" s="11"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
@@ -3165,10 +3008,10 @@
         <v>42695</v>
       </c>
       <c r="B56" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>113</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>14</v>
@@ -3195,13 +3038,13 @@
         <v>19186000</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N56" s="4"/>
-      <c r="O56" s="12"/>
+      <c r="O56" s="11"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
@@ -3212,10 +3055,10 @@
         <v>42695</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>14</v>
@@ -3248,7 +3091,7 @@
         <v>17</v>
       </c>
       <c r="N57" s="4"/>
-      <c r="O57" s="12"/>
+      <c r="O57" s="11"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
@@ -3259,10 +3102,10 @@
         <v>42695</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>117</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>14</v>
@@ -3295,7 +3138,7 @@
         <v>17</v>
       </c>
       <c r="N58" s="4"/>
-      <c r="O58" s="12"/>
+      <c r="O58" s="11"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
@@ -3306,10 +3149,10 @@
         <v>42696</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>14</v>
@@ -3342,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="N59" s="4"/>
-      <c r="O59" s="12"/>
+      <c r="O59" s="11"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
@@ -3353,10 +3196,10 @@
         <v>42697</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>121</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>14</v>
@@ -3389,7 +3232,7 @@
         <v>17</v>
       </c>
       <c r="N60" s="4"/>
-      <c r="O60" s="12"/>
+      <c r="O60" s="11"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
@@ -3400,10 +3243,10 @@
         <v>42697</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>123</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>14</v>
@@ -3425,13 +3268,8 @@
       <c r="K61" s="10"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-      <c r="N61" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O61" s="12" t="n">
-        <f aca="false">-H61</f>
-        <v>-103155000</v>
-      </c>
+      <c r="N61" s="4"/>
+      <c r="O61" s="11"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
@@ -3442,10 +3280,10 @@
         <v>42697</v>
       </c>
       <c r="B62" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>14</v>
@@ -3478,7 +3316,7 @@
         <v>17</v>
       </c>
       <c r="N62" s="4"/>
-      <c r="O62" s="12"/>
+      <c r="O62" s="11"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
@@ -3489,10 +3327,10 @@
         <v>42697</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>14</v>
@@ -3523,7 +3361,7 @@
         <v>17</v>
       </c>
       <c r="N63" s="4"/>
-      <c r="O63" s="12"/>
+      <c r="O63" s="11"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
@@ -3534,10 +3372,10 @@
         <v>42697</v>
       </c>
       <c r="B64" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>14</v>
@@ -3570,7 +3408,7 @@
         <v>17</v>
       </c>
       <c r="N64" s="4"/>
-      <c r="O64" s="12"/>
+      <c r="O64" s="11"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
@@ -3581,10 +3419,10 @@
         <v>42698</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>14</v>
@@ -3606,13 +3444,8 @@
       <c r="K65" s="10"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-      <c r="N65" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O65" s="12" t="n">
-        <f aca="false">-H65</f>
-        <v>-57960000</v>
-      </c>
+      <c r="N65" s="4"/>
+      <c r="O65" s="11"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
@@ -3623,10 +3456,10 @@
         <v>42698</v>
       </c>
       <c r="B66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>14</v>
@@ -3648,13 +3481,8 @@
       <c r="K66" s="10"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-      <c r="N66" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O66" s="12" t="n">
-        <f aca="false">-H66</f>
-        <v>-28368000</v>
-      </c>
+      <c r="N66" s="4"/>
+      <c r="O66" s="11"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
@@ -3665,10 +3493,10 @@
         <v>42698</v>
       </c>
       <c r="B67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>14</v>
@@ -3690,13 +3518,8 @@
       <c r="K67" s="10"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-      <c r="N67" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="O67" s="12" t="n">
-        <f aca="false">-H67</f>
-        <v>-19910000</v>
-      </c>
+      <c r="N67" s="4"/>
+      <c r="O67" s="11"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
@@ -3707,10 +3530,10 @@
         <v>42699</v>
       </c>
       <c r="B68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>133</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>14</v>
@@ -3743,7 +3566,7 @@
         <v>17</v>
       </c>
       <c r="N68" s="4"/>
-      <c r="O68" s="12"/>
+      <c r="O68" s="11"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
@@ -3753,17 +3576,17 @@
       <c r="A69" s="9" t="n">
         <v>42699</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D69" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="14" t="s">
-        <v>93</v>
+      <c r="D69" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="F69" s="7" t="n">
         <v>4800</v>
@@ -3788,7 +3611,7 @@
         <v>17</v>
       </c>
       <c r="N69" s="4"/>
-      <c r="O69" s="12"/>
+      <c r="O69" s="11"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
@@ -3798,16 +3621,16 @@
       <c r="A70" s="9" t="n">
         <v>42699</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D70" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="14" t="s">
+      <c r="D70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F70" s="7" t="n">
@@ -3835,7 +3658,7 @@
         <v>17</v>
       </c>
       <c r="N70" s="4"/>
-      <c r="O70" s="12"/>
+      <c r="O70" s="11"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
@@ -3846,10 +3669,10 @@
         <v>42699</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>14</v>
@@ -3882,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="N71" s="4"/>
-      <c r="O71" s="12"/>
+      <c r="O71" s="11"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
@@ -3893,10 +3716,10 @@
         <v>42699</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>14</v>
@@ -3923,13 +3746,13 @@
         <v>39675000</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N72" s="4"/>
-      <c r="O72" s="12"/>
+      <c r="O72" s="11"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
@@ -3940,10 +3763,10 @@
         <v>42699</v>
       </c>
       <c r="B73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>14</v>
@@ -3976,7 +3799,7 @@
         <v>17</v>
       </c>
       <c r="N73" s="4"/>
-      <c r="O73" s="12"/>
+      <c r="O73" s="11"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
@@ -3987,10 +3810,10 @@
         <v>42702</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>14</v>
@@ -4017,13 +3840,13 @@
         <v>35190000</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N74" s="4"/>
-      <c r="O74" s="12"/>
+      <c r="O74" s="11"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
@@ -4034,10 +3857,10 @@
         <v>42703</v>
       </c>
       <c r="B75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>14</v>
@@ -4064,7 +3887,7 @@
         <v>22444000</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>17</v>
@@ -4079,10 +3902,10 @@
         <v>42704</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>14</v>
@@ -4109,13 +3932,13 @@
         <v>86880000</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="N76" s="4"/>
-      <c r="O76" s="12"/>
+      <c r="O76" s="11"/>
       <c r="P76" s="4"/>
       <c r="Q76" s="4"/>
       <c r="R76" s="4"/>
@@ -4126,10 +3949,10 @@
         <v>42703</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>148</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>149</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>14</v>
@@ -4143,7 +3966,7 @@
       <c r="G77" s="7" t="n">
         <v>3450</v>
       </c>
-      <c r="H77" s="15" t="n">
+      <c r="H77" s="13" t="n">
         <v>32085000</v>
       </c>
       <c r="I77" s="10" t="n">
@@ -4152,61 +3975,51 @@
       <c r="J77" s="9" t="n">
         <v>42746</v>
       </c>
-      <c r="K77" s="16" t="n">
+      <c r="K77" s="14" t="n">
         <v>32085000</v>
       </c>
-      <c r="L77" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M77" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="N77" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="O77" s="18"/>
-      <c r="P77" s="19" t="s">
-        <v>151</v>
-      </c>
+      <c r="L77" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" s="15"/>
+      <c r="O77" s="16"/>
+      <c r="P77" s="17"/>
       <c r="Q77" s="4"/>
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H78" s="20" t="n">
+      <c r="H78" s="18" t="n">
         <f aca="false">SUM(H2:H77)</f>
         <v>2794345000</v>
       </c>
-      <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
-      <c r="K78" s="20" t="n">
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
+      <c r="K78" s="18" t="n">
         <f aca="false">SUM(K2:K77)</f>
         <v>1677560000</v>
       </c>
-      <c r="O78" s="22" t="n">
-        <f aca="false">SUM(O8:O77)</f>
-        <v>-1116785000</v>
-      </c>
+      <c r="O78" s="20"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H80" s="22" t="n">
+      <c r="H80" s="20" t="n">
         <f aca="false">K78-H78</f>
         <v>-1116785000</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H82" s="22" t="n">
+      <c r="H82" s="20" t="n">
         <f aca="false">H80-O78</f>
-        <v>0</v>
+        <v>-1116785000</v>
       </c>
       <c r="J82" s="4"/>
       <c r="K82" s="1"/>
       <c r="L82" s="4"/>
       <c r="M82" s="4"/>
     </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
